--- a/Cambio01/NUEVAS EXPOS 2021.xlsx
+++ b/Cambio01/NUEVAS EXPOS 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\OneDrive\Documents\PruebaExcel\Cambio01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1000E02-B8F6-4122-8F73-05BF1FD0644B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFDFB7F-CB2C-4EBF-B4FD-355D99885FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXPO AGRO 2019" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="1441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="1448">
   <si>
     <t>NO</t>
   </si>
@@ -4483,6 +4483,27 @@
   </si>
   <si>
     <t>juancarlos.nmoreno@jcplastics.com.mx</t>
+  </si>
+  <si>
+    <t>asfasd</t>
+  </si>
+  <si>
+    <t>afasd</t>
+  </si>
+  <si>
+    <t>afsdas</t>
+  </si>
+  <si>
+    <t>26+563</t>
+  </si>
+  <si>
+    <t>asmkanskd</t>
+  </si>
+  <si>
+    <t>asdffsa</t>
+  </si>
+  <si>
+    <t>v,asdasmd</t>
   </si>
 </sst>
 </file>
@@ -5073,7 +5094,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5405,6 +5426,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6520,7 +6544,7 @@
   </sheetPr>
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11146,9 +11170,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B3:P100"/>
+  <dimension ref="B3:P101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11271,7 +11297,7 @@
     </row>
     <row r="8" spans="2:16" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="71">
-        <f t="shared" ref="B8:B31" si="0">+B7+1</f>
+        <f t="shared" ref="B8:B30" si="0">+B7+1</f>
         <v>2</v>
       </c>
       <c r="C8" s="71" t="s">
@@ -12094,40 +12120,72 @@
     </row>
     <row r="31" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="71">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C31" s="71" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D31" s="71" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E31" s="71" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F31" s="71" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G31" s="71" t="s">
-        <v>1074</v>
+      <c r="C31" s="117" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D31" s="117" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E31" s="117" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F31" s="71">
+        <v>6662</v>
+      </c>
+      <c r="G31" s="117" t="s">
+        <v>1444</v>
       </c>
       <c r="H31" s="72" t="s">
-        <v>1075</v>
+        <v>1445</v>
       </c>
       <c r="I31" s="73"/>
       <c r="J31" s="73"/>
       <c r="K31" s="73"/>
       <c r="L31" s="73"/>
-      <c r="M31" s="71" t="s">
+      <c r="M31" s="117" t="s">
+        <v>1446</v>
+      </c>
+      <c r="N31" s="117" t="s">
+        <v>1447</v>
+      </c>
+      <c r="O31" s="71"/>
+    </row>
+    <row r="32" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="71">
+        <v>26</v>
+      </c>
+      <c r="C32" s="71" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D32" s="71" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E32" s="71" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F32" s="71" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G32" s="71" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H32" s="72" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="71" t="s">
         <v>762</v>
       </c>
-      <c r="N31" s="71" t="s">
+      <c r="N32" s="71" t="s">
         <v>1003</v>
       </c>
-      <c r="O31" s="71"/>
-    </row>
-    <row r="32" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="O32" s="71"/>
+    </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12196,6 +12254,7 @@
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:N3"/>
@@ -12225,7 +12284,7 @@
     <hyperlink ref="H28" r:id="rId22" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
     <hyperlink ref="H29" r:id="rId23" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
     <hyperlink ref="H30" r:id="rId24" xr:uid="{00000000-0004-0000-0500-000017000000}"/>
-    <hyperlink ref="H31" r:id="rId25" xr:uid="{00000000-0004-0000-0500-000018000000}"/>
+    <hyperlink ref="H32" r:id="rId25" xr:uid="{00000000-0004-0000-0500-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
